--- a/Objects/PerfMeasures_All.xlsx
+++ b/Objects/PerfMeasures_All.xlsx
@@ -1605,58 +1605,58 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F18">
-        <v>95.98999999999999</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="G18">
-        <v>98.3</v>
+        <v>98.23</v>
       </c>
       <c r="H18">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>0.07637851585847485</v>
+        <v>0.07967829813798101</v>
       </c>
       <c r="J18">
-        <v>63.4</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="K18">
-        <v>60.32</v>
+        <v>61.45</v>
       </c>
       <c r="L18">
-        <v>66.38</v>
+        <v>67.67</v>
       </c>
       <c r="M18">
         <v>0.2</v>
       </c>
       <c r="N18">
-        <v>27.1</v>
+        <v>29.5</v>
       </c>
       <c r="O18">
         <v>99.59999999999999</v>
       </c>
       <c r="P18">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Q18">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="R18">
         <v>0.001</v>
       </c>
       <c r="S18">
-        <v>0.0017</v>
+        <v>0.0019</v>
       </c>
       <c r="T18">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
       <c r="U18">
-        <v>0.83871</v>
+        <v>0.7871</v>
       </c>
       <c r="V18">
-        <v>0.27742</v>
+        <v>0.29677</v>
       </c>
     </row>
     <row r="19">
@@ -1675,13 +1675,13 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="F19">
-        <v>88.26000000000001</v>
+        <v>88.14</v>
       </c>
       <c r="G19">
-        <v>92.90000000000001</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="H19">
         <v>77.5</v>
@@ -1726,7 +1726,7 @@
         <v>0.01316</v>
       </c>
       <c r="V19">
-        <v>0.21711</v>
+        <v>0.27632</v>
       </c>
     </row>
     <row r="20">
@@ -1745,13 +1745,13 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>90.3</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F20">
-        <v>88.05</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="G20">
-        <v>92.54000000000001</v>
+        <v>92.22</v>
       </c>
       <c r="H20">
         <v>40.8</v>
@@ -1781,7 +1781,7 @@
         <v>0.18</v>
       </c>
       <c r="Q20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="R20">
         <v>0.0011</v>
@@ -1796,7 +1796,7 @@
         <v>0.00671</v>
       </c>
       <c r="V20">
-        <v>0.26174</v>
+        <v>0.30872</v>
       </c>
     </row>
     <row r="21">
@@ -1815,13 +1815,13 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F21">
-        <v>81.18000000000001</v>
+        <v>80.45999999999999</v>
       </c>
       <c r="G21">
-        <v>87.04000000000001</v>
+        <v>86.47</v>
       </c>
       <c r="H21">
         <v>24.4</v>
@@ -1860,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0.0011</v>
+        <v>0.001</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0.21918</v>
+        <v>0.25342</v>
       </c>
     </row>
     <row r="22">
@@ -1885,34 +1885,34 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>76.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="F22">
-        <v>71.79000000000001</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="G22">
-        <v>80.45</v>
+        <v>93.33</v>
       </c>
       <c r="H22">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0.02399020230463227</v>
+        <v>0.03003211915600717</v>
       </c>
       <c r="J22">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="K22">
-        <v>55.58</v>
+        <v>55.25</v>
       </c>
       <c r="L22">
-        <v>62.26</v>
+        <v>61.82</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="O22">
         <v>99.90000000000001</v>
@@ -1927,16 +1927,16 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="S22">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="T22">
         <v>0.0004</v>
       </c>
       <c r="U22">
-        <v>0.51613</v>
+        <v>0.52258</v>
       </c>
       <c r="V22">
-        <v>0.39355</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
@@ -1955,13 +1955,13 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>81.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F23">
-        <v>78.3</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="G23">
-        <v>84.94</v>
+        <v>82.91</v>
       </c>
       <c r="H23">
         <v>62.8</v>
@@ -1991,7 +1991,7 @@
         <v>0.06</v>
       </c>
       <c r="Q23">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="R23">
         <v>0.0005999999999999999</v>
@@ -2006,7 +2006,7 @@
         <v>0.25658</v>
       </c>
       <c r="V23">
-        <v>0.27632</v>
+        <v>0.28947</v>
       </c>
     </row>
     <row r="24">
@@ -2025,13 +2025,13 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>74.7</v>
+        <v>71.3</v>
       </c>
       <c r="F24">
-        <v>70.78</v>
+        <v>66.42</v>
       </c>
       <c r="G24">
-        <v>78.63</v>
+        <v>76.08</v>
       </c>
       <c r="H24">
         <v>48.9</v>
@@ -2076,7 +2076,7 @@
         <v>0.20805</v>
       </c>
       <c r="V24">
-        <v>0.22819</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="25">
@@ -2095,13 +2095,13 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>74.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F25">
-        <v>70.88</v>
+        <v>65.48</v>
       </c>
       <c r="G25">
-        <v>78.17</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="H25">
         <v>49.6</v>
@@ -2146,7 +2146,7 @@
         <v>0.19863</v>
       </c>
       <c r="V25">
-        <v>0.22603</v>
+        <v>0.23288</v>
       </c>
     </row>
   </sheetData>

--- a/Objects/PerfMeasures_All.xlsx
+++ b/Objects/PerfMeasures_All.xlsx
@@ -509,7 +509,7 @@
         <v>83.05</v>
       </c>
       <c r="M2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="N2">
         <v>68.7</v>
@@ -579,7 +579,7 @@
         <v>78.77</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
         <v>61.4</v>
@@ -649,7 +649,7 @@
         <v>75.67</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
         <v>55.8</v>
@@ -719,7 +719,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="M5">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
         <v>53.5</v>
@@ -859,7 +859,7 @@
         <v>79.14</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
         <v>61</v>
@@ -929,7 +929,7 @@
         <v>77.59</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>59.6</v>
@@ -999,7 +999,7 @@
         <v>74.58</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
         <v>53.1</v>
@@ -1069,7 +1069,7 @@
         <v>90.63</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
         <v>82.90000000000001</v>
@@ -1139,7 +1139,7 @@
         <v>82.58</v>
       </c>
       <c r="M11">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N11">
         <v>67.59999999999999</v>
@@ -1209,7 +1209,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
         <v>56.2</v>
@@ -1279,7 +1279,7 @@
         <v>74.89</v>
       </c>
       <c r="M13">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
         <v>53.3</v>
@@ -1489,7 +1489,7 @@
         <v>50</v>
       </c>
       <c r="M16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N16">
         <v>0</v>
